--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2277,28 +2277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>723.0207463661766</v>
+        <v>783.9987494345676</v>
       </c>
       <c r="AB2" t="n">
-        <v>989.2688826023261</v>
+        <v>1072.701676560132</v>
       </c>
       <c r="AC2" t="n">
-        <v>894.8544488943567</v>
+        <v>970.3245340954909</v>
       </c>
       <c r="AD2" t="n">
-        <v>723020.7463661766</v>
+        <v>783998.7494345675</v>
       </c>
       <c r="AE2" t="n">
-        <v>989268.8826023261</v>
+        <v>1072701.676560132</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.588996525897149e-06</v>
+        <v>2.9400595951283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.563802083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>894854.4488943566</v>
+        <v>970324.5340954909</v>
       </c>
     </row>
     <row r="3">
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.2118027322911</v>
+        <v>390.713353227305</v>
       </c>
       <c r="AB3" t="n">
-        <v>484.6482152201795</v>
+        <v>534.5912469422136</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.394069767607</v>
+        <v>483.5706086375754</v>
       </c>
       <c r="AD3" t="n">
-        <v>354211.802732291</v>
+        <v>390713.353227305</v>
       </c>
       <c r="AE3" t="n">
-        <v>484648.2152201795</v>
+        <v>534591.2469422136</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.496514372522703e-06</v>
+        <v>4.61920521265266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.087239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>438394.069767607</v>
+        <v>483570.6086375754</v>
       </c>
     </row>
     <row r="4">
@@ -2489,28 +2489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.0777471374344</v>
+        <v>315.4939567778767</v>
       </c>
       <c r="AB4" t="n">
-        <v>381.8464856747023</v>
+        <v>431.6727502745388</v>
       </c>
       <c r="AC4" t="n">
-        <v>345.4035930068165</v>
+        <v>390.4745088448462</v>
       </c>
       <c r="AD4" t="n">
-        <v>279077.7471374344</v>
+        <v>315493.9567778768</v>
       </c>
       <c r="AE4" t="n">
-        <v>381846.4856747023</v>
+        <v>431672.7502745388</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.854293013291131e-06</v>
+        <v>5.281189369684897e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.323893229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>345403.5930068166</v>
+        <v>390474.5088448462</v>
       </c>
     </row>
     <row r="5">
@@ -2595,28 +2595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.4273068154102</v>
+        <v>272.9287678018761</v>
       </c>
       <c r="AB5" t="n">
-        <v>323.4902716213266</v>
+        <v>373.4331808739685</v>
       </c>
       <c r="AC5" t="n">
-        <v>292.616814119331</v>
+        <v>337.7932422081173</v>
       </c>
       <c r="AD5" t="n">
-        <v>236427.3068154102</v>
+        <v>272928.7678018761</v>
       </c>
       <c r="AE5" t="n">
-        <v>323490.2716213266</v>
+        <v>373433.1808739685</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.038784295691552e-06</v>
+        <v>5.622546544605486e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>5</v>
       </c>
       <c r="AH5" t="n">
-        <v>292616.814119331</v>
+        <v>337793.2422081173</v>
       </c>
     </row>
     <row r="6">
@@ -2701,28 +2701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>229.9683252243685</v>
+        <v>266.4697862108342</v>
       </c>
       <c r="AB6" t="n">
-        <v>314.6528080583107</v>
+        <v>364.5957173109481</v>
       </c>
       <c r="AC6" t="n">
-        <v>284.6227856753085</v>
+        <v>329.7992137640936</v>
       </c>
       <c r="AD6" t="n">
-        <v>229968.3252243685</v>
+        <v>266469.7862108342</v>
       </c>
       <c r="AE6" t="n">
-        <v>314652.8080583107</v>
+        <v>364595.7173109481</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.082759697518778e-06</v>
+        <v>5.703912551380586e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.930013020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>284622.7856753086</v>
+        <v>329799.2137640936</v>
       </c>
     </row>
   </sheetData>
@@ -2998,28 +2998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>508.0651352108285</v>
+        <v>555.0347323956769</v>
       </c>
       <c r="AB2" t="n">
-        <v>695.1571322473035</v>
+        <v>759.4230072679957</v>
       </c>
       <c r="AC2" t="n">
-        <v>628.8123112047829</v>
+        <v>686.9447413112223</v>
       </c>
       <c r="AD2" t="n">
-        <v>508065.1352108286</v>
+        <v>555034.7323956769</v>
       </c>
       <c r="AE2" t="n">
-        <v>695157.1322473035</v>
+        <v>759423.0072679956</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.96078945240204e-06</v>
+        <v>3.737567309617679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.017578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>628812.3112047829</v>
+        <v>686944.7413112223</v>
       </c>
     </row>
     <row r="3">
@@ -3104,28 +3104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.3649270718529</v>
+        <v>310.6560634700046</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.7664414629126</v>
+        <v>425.0533312179186</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.8083810847132</v>
+        <v>384.486837852577</v>
       </c>
       <c r="AD3" t="n">
-        <v>275364.9270718529</v>
+        <v>310656.0634700046</v>
       </c>
       <c r="AE3" t="n">
-        <v>376766.4414629126</v>
+        <v>425053.3312179187</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.811904011023132e-06</v>
+        <v>5.359923012900817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.5908203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>340808.3810847132</v>
+        <v>384486.837852577</v>
       </c>
     </row>
     <row r="4">
@@ -3210,28 +3210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.6426463454277</v>
+        <v>253.1701601194129</v>
       </c>
       <c r="AB4" t="n">
-        <v>314.207199848206</v>
+        <v>346.3985821544086</v>
       </c>
       <c r="AC4" t="n">
-        <v>284.219705687361</v>
+        <v>313.3387876471587</v>
       </c>
       <c r="AD4" t="n">
-        <v>229642.6463454277</v>
+        <v>253170.1601194129</v>
       </c>
       <c r="AE4" t="n">
-        <v>314207.199848206</v>
+        <v>346398.5821544086</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.126001213092558e-06</v>
+        <v>5.958640755419741e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.029296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>284219.705687361</v>
+        <v>313338.7876471587</v>
       </c>
     </row>
     <row r="5">
@@ -3316,28 +3316,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.6362863996166</v>
+        <v>249.8420819431962</v>
       </c>
       <c r="AB5" t="n">
-        <v>293.6748361364808</v>
+        <v>341.8449587692644</v>
       </c>
       <c r="AC5" t="n">
-        <v>265.6469219509229</v>
+        <v>309.2197556868407</v>
       </c>
       <c r="AD5" t="n">
-        <v>214636.2863996166</v>
+        <v>249842.0819431962</v>
       </c>
       <c r="AE5" t="n">
-        <v>293674.8361364808</v>
+        <v>341844.9587692644</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.152272565787172e-06</v>
+        <v>6.008718008176552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.986979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>265646.9219509229</v>
+        <v>309219.7556868407</v>
       </c>
     </row>
   </sheetData>
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.5749841769964</v>
+        <v>227.9653116505686</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.9625656270861</v>
+        <v>311.9121965199169</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.2931558550474</v>
+        <v>282.1437342556657</v>
       </c>
       <c r="AD2" t="n">
-        <v>196574.9841769964</v>
+        <v>227965.3116505686</v>
       </c>
       <c r="AE2" t="n">
-        <v>268962.5656270861</v>
+        <v>311912.1965199169</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.167313574413038e-06</v>
+        <v>6.745549018243597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.538736979166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>243293.1558550474</v>
+        <v>282143.7342556657</v>
       </c>
     </row>
     <row r="3">
@@ -3719,28 +3719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.3864372339691</v>
+        <v>224.6061725069491</v>
       </c>
       <c r="AB3" t="n">
-        <v>264.5998550308751</v>
+        <v>307.3160741488591</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.3468162350347</v>
+        <v>277.9862593530019</v>
       </c>
       <c r="AD3" t="n">
-        <v>193386.4372339691</v>
+        <v>224606.1725069491</v>
       </c>
       <c r="AE3" t="n">
-        <v>264599.8550308751</v>
+        <v>307316.0741488591</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.209561666190972e-06</v>
+        <v>6.835526397281011e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.465494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>239346.8162350347</v>
+        <v>277986.2593530019</v>
       </c>
     </row>
   </sheetData>
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.5987578910435</v>
+        <v>315.428894683624</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.6640879238216</v>
+        <v>431.5837294468452</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.7614100588271</v>
+        <v>390.393984040006</v>
       </c>
       <c r="AD2" t="n">
-        <v>282598.7578910436</v>
+        <v>315428.894683624</v>
       </c>
       <c r="AE2" t="n">
-        <v>386664.0879238216</v>
+        <v>431583.7294468451</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.689201162185557e-06</v>
+        <v>5.460008101224619e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.240234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>349761.4100588271</v>
+        <v>390393.9840400061</v>
       </c>
     </row>
     <row r="3">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.7779471436129</v>
+        <v>224.7216287445644</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.4497332134191</v>
+        <v>307.4740464667339</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.970320078758</v>
+        <v>278.1291550145743</v>
       </c>
       <c r="AD3" t="n">
-        <v>202777.9471436129</v>
+        <v>224721.6287445644</v>
       </c>
       <c r="AE3" t="n">
-        <v>277449.733213419</v>
+        <v>307474.0464667339</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.23504239186926e-06</v>
+        <v>6.568254512078201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.187174479166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>250970.320078758</v>
+        <v>278129.1550145743</v>
       </c>
     </row>
   </sheetData>
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.269721857629</v>
+        <v>216.4091867486091</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.8624510856478</v>
+        <v>296.1005966088143</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.5387364558045</v>
+        <v>267.8411712483539</v>
       </c>
       <c r="AD2" t="n">
-        <v>186269.721857629</v>
+        <v>216409.1867486091</v>
       </c>
       <c r="AE2" t="n">
-        <v>254862.4510856478</v>
+        <v>296100.5966088143</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.127552895613117e-06</v>
+        <v>6.96444941226008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8251953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>230538.7364558045</v>
+        <v>267841.1712483539</v>
       </c>
     </row>
   </sheetData>
@@ -4716,28 +4716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>552.3180024830219</v>
+        <v>599.7416724473686</v>
       </c>
       <c r="AB2" t="n">
-        <v>755.7058575478361</v>
+        <v>820.5930149777153</v>
       </c>
       <c r="AC2" t="n">
-        <v>683.5823511433023</v>
+        <v>742.2767693377714</v>
       </c>
       <c r="AD2" t="n">
-        <v>552318.0024830219</v>
+        <v>599741.6724473686</v>
       </c>
       <c r="AE2" t="n">
-        <v>755705.8575478361</v>
+        <v>820593.0149777152</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.860475269261102e-06</v>
+        <v>3.517719045490166e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.3740234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>683582.3511433023</v>
+        <v>742276.7693377713</v>
       </c>
     </row>
     <row r="3">
@@ -4822,28 +4822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.3073436411448</v>
+        <v>326.9390346239203</v>
       </c>
       <c r="AB3" t="n">
-        <v>398.5795591427983</v>
+        <v>447.3324107046946</v>
       </c>
       <c r="AC3" t="n">
-        <v>360.5396854281336</v>
+        <v>404.6396332620193</v>
       </c>
       <c r="AD3" t="n">
-        <v>291307.3436411448</v>
+        <v>326939.0346239203</v>
       </c>
       <c r="AE3" t="n">
-        <v>398579.5591427983</v>
+        <v>447332.4107046946</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.728065321253829e-06</v>
+        <v>5.158126795056604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.711263020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>360539.6854281336</v>
+        <v>404639.6332620194</v>
       </c>
     </row>
     <row r="4">
@@ -4928,28 +4928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>240.5335719660887</v>
+        <v>264.2881221298264</v>
       </c>
       <c r="AB4" t="n">
-        <v>329.1086447561153</v>
+        <v>361.610668267087</v>
       </c>
       <c r="AC4" t="n">
-        <v>297.6989776075735</v>
+        <v>327.0990536114359</v>
       </c>
       <c r="AD4" t="n">
-        <v>240533.5719660887</v>
+        <v>264288.1221298265</v>
       </c>
       <c r="AE4" t="n">
-        <v>329108.6447561153</v>
+        <v>361610.668267087</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.063270568614655e-06</v>
+        <v>5.791920698298183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.086263020833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>297698.9776075735</v>
+        <v>327099.0536114359</v>
       </c>
     </row>
     <row r="5">
@@ -5034,28 +5034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.6385131212295</v>
+        <v>254.1848632494329</v>
       </c>
       <c r="AB5" t="n">
-        <v>299.1508593027704</v>
+        <v>347.786943742444</v>
       </c>
       <c r="AC5" t="n">
-        <v>270.6003211518702</v>
+        <v>314.5946459538101</v>
       </c>
       <c r="AD5" t="n">
-        <v>218638.5131212295</v>
+        <v>254184.8632494329</v>
       </c>
       <c r="AE5" t="n">
-        <v>299150.8593027703</v>
+        <v>347786.943742444</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.131900540732792e-06</v>
+        <v>5.921683756157753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>270600.3211518702</v>
+        <v>314594.6459538101</v>
       </c>
     </row>
   </sheetData>
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>194.5661305095703</v>
+        <v>223.8796461179457</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.2139634149461</v>
+        <v>306.3220086913428</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.8068763803458</v>
+        <v>277.087066107571</v>
       </c>
       <c r="AD2" t="n">
-        <v>194566.1305095703</v>
+        <v>223879.6461179457</v>
       </c>
       <c r="AE2" t="n">
-        <v>266213.9634149462</v>
+        <v>306322.0086913428</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.031602864965234e-06</v>
+        <v>6.950151921919631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.150716145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>240806.8763803458</v>
+        <v>277087.0661075711</v>
       </c>
     </row>
   </sheetData>
@@ -5628,28 +5628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.3337240147338</v>
+        <v>419.5196855232558</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.230600921083</v>
+        <v>574.0053416352226</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.9124523419699</v>
+        <v>519.2230774511129</v>
       </c>
       <c r="AD2" t="n">
-        <v>385333.7240147338</v>
+        <v>419519.6855232558</v>
       </c>
       <c r="AE2" t="n">
-        <v>527230.600921083</v>
+        <v>574005.3416352227</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.28840923660394e-06</v>
+        <v>4.485250478078692e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.078450520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>476912.4523419699</v>
+        <v>519223.0774511129</v>
       </c>
     </row>
     <row r="3">
@@ -5734,28 +5734,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.236581426298</v>
+        <v>251.0272522681627</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.2833597946474</v>
+        <v>343.4665610939073</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.479474228387</v>
+        <v>310.6865945615533</v>
       </c>
       <c r="AD3" t="n">
-        <v>228236.581426298</v>
+        <v>251027.2522681627</v>
       </c>
       <c r="AE3" t="n">
-        <v>312283.3597946474</v>
+        <v>343466.5610939073</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.091581568689103e-06</v>
+        <v>6.059457149176846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.239257812499999</v>
       </c>
       <c r="AH3" t="n">
-        <v>282479.474228387</v>
+        <v>310686.5945615533</v>
       </c>
     </row>
     <row r="4">
@@ -5840,28 +5840,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.2621554553485</v>
+        <v>238.0528262972133</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.5311777899269</v>
+        <v>325.7143790891868</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.4215355588474</v>
+        <v>294.6286558920137</v>
       </c>
       <c r="AD4" t="n">
-        <v>215262.1554553485</v>
+        <v>238052.8262972133</v>
       </c>
       <c r="AE4" t="n">
-        <v>294531.1777899269</v>
+        <v>325714.3790891868</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.194378870020285e-06</v>
+        <v>6.260938439134025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.069986979166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>266421.5355588474</v>
+        <v>294628.6558920137</v>
       </c>
     </row>
   </sheetData>
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>456.2708197570886</v>
+        <v>502.8543288211069</v>
       </c>
       <c r="AB2" t="n">
-        <v>624.2898648395661</v>
+        <v>688.0274770603329</v>
       </c>
       <c r="AC2" t="n">
-        <v>564.7085163356055</v>
+        <v>622.3631003023229</v>
       </c>
       <c r="AD2" t="n">
-        <v>456270.8197570886</v>
+        <v>502854.3288211069</v>
       </c>
       <c r="AE2" t="n">
-        <v>624289.8648395662</v>
+        <v>688027.4770603329</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.064241671017487e-06</v>
+        <v>3.968923821284898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.687174479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>564708.5163356055</v>
+        <v>622363.1003023229</v>
       </c>
     </row>
     <row r="3">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>259.2465903352258</v>
+        <v>294.0136299326473</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.7126220490289</v>
+        <v>402.2824194397569</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.8593472429606</v>
+        <v>363.8891499353476</v>
       </c>
       <c r="AD3" t="n">
-        <v>259246.5903352258</v>
+        <v>294013.6299326473</v>
       </c>
       <c r="AE3" t="n">
-        <v>354712.6220490289</v>
+        <v>402282.419439757</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.903062279196762e-06</v>
+        <v>5.581726789237001e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.467122395833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>320859.3472429606</v>
+        <v>363889.1499353476</v>
       </c>
     </row>
     <row r="4">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.7870372902604</v>
+        <v>245.0788813308203</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.4588089739194</v>
+        <v>335.3277375538348</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.4971261526516</v>
+        <v>303.3245289172322</v>
       </c>
       <c r="AD4" t="n">
-        <v>221787.0372902604</v>
+        <v>245078.8813308203</v>
       </c>
       <c r="AE4" t="n">
-        <v>303458.8089739194</v>
+        <v>335327.7375538348</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.170318734737782e-06</v>
+        <v>6.095581599786428e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>274497.1261526516</v>
+        <v>303324.5289172322</v>
       </c>
     </row>
     <row r="5">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.7079665824315</v>
+        <v>245.9998106229914</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.7188650600001</v>
+        <v>336.5877936399154</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.636924254377</v>
+        <v>304.4643270189575</v>
       </c>
       <c r="AD5" t="n">
-        <v>222707.9665824315</v>
+        <v>245999.8106229914</v>
       </c>
       <c r="AE5" t="n">
-        <v>304718.8650600001</v>
+        <v>336587.7936399154</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.169538708599756e-06</v>
+        <v>6.0940818411274e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.006510416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>275636.924254377</v>
+        <v>304464.3270189575</v>
       </c>
     </row>
   </sheetData>
@@ -6752,28 +6752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>663.0924762070952</v>
+        <v>711.4639874731245</v>
       </c>
       <c r="AB2" t="n">
-        <v>907.2723795219849</v>
+        <v>973.4564152366328</v>
       </c>
       <c r="AC2" t="n">
-        <v>820.6835769851882</v>
+        <v>880.5511012211076</v>
       </c>
       <c r="AD2" t="n">
-        <v>663092.4762070952</v>
+        <v>711463.9874731244</v>
       </c>
       <c r="AE2" t="n">
-        <v>907272.379521985</v>
+        <v>973456.4152366328</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.678494743624308e-06</v>
+        <v>3.126908399547683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.1259765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>820683.5769851882</v>
+        <v>880551.1012211076</v>
       </c>
     </row>
     <row r="3">
@@ -6858,28 +6858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.3009030463007</v>
+        <v>372.5016430946357</v>
       </c>
       <c r="AB3" t="n">
-        <v>443.7228026940444</v>
+        <v>509.6731816947486</v>
       </c>
       <c r="AC3" t="n">
-        <v>401.3745211737889</v>
+        <v>461.0306885646042</v>
       </c>
       <c r="AD3" t="n">
-        <v>324300.9030463007</v>
+        <v>372501.6430946357</v>
       </c>
       <c r="AE3" t="n">
-        <v>443722.8026940444</v>
+        <v>509673.1816947486</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.572939040983737e-06</v>
+        <v>4.793190285126667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.953776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>401374.5211737889</v>
+        <v>461030.6885646043</v>
       </c>
     </row>
     <row r="4">
@@ -6964,28 +6964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.7155878068883</v>
+        <v>290.9013881941784</v>
       </c>
       <c r="AB4" t="n">
-        <v>364.9320338986704</v>
+        <v>398.0241129907686</v>
       </c>
       <c r="AC4" t="n">
-        <v>330.1034327687069</v>
+        <v>360.03725027728</v>
       </c>
       <c r="AD4" t="n">
-        <v>266715.5878068883</v>
+        <v>290901.3881941784</v>
       </c>
       <c r="AE4" t="n">
-        <v>364932.0338986704</v>
+        <v>398024.1129907686</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.919084466666395e-06</v>
+        <v>5.438032959280656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.247395833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>330103.4327687069</v>
+        <v>360037.25027728</v>
       </c>
     </row>
     <row r="5">
@@ -7070,28 +7070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.5809352330206</v>
+        <v>263.7741606965604</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.3862757479371</v>
+        <v>360.9074435597142</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.6680066240292</v>
+        <v>326.4629436831527</v>
       </c>
       <c r="AD5" t="n">
-        <v>227580.9352330206</v>
+        <v>263774.1606965604</v>
       </c>
       <c r="AE5" t="n">
-        <v>311386.2757479372</v>
+        <v>360907.4435597142</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.087075109636363e-06</v>
+        <v>5.750986785644132e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.962565104166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>281668.0066240292</v>
+        <v>326462.9436831527</v>
       </c>
     </row>
     <row r="6">
@@ -7176,28 +7176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>226.7007547528366</v>
+        <v>262.8939802163764</v>
       </c>
       <c r="AB6" t="n">
-        <v>310.1819739841278</v>
+        <v>359.7031417959041</v>
       </c>
       <c r="AC6" t="n">
-        <v>280.5786417303092</v>
+        <v>325.3735787894325</v>
       </c>
       <c r="AD6" t="n">
-        <v>226700.7547528366</v>
+        <v>262893.9802163764</v>
       </c>
       <c r="AE6" t="n">
-        <v>310181.9739841277</v>
+        <v>359703.1417959041</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.096109900518782e-06</v>
+        <v>5.767817915801496e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>280578.6417303092</v>
+        <v>325373.5787894325</v>
       </c>
     </row>
   </sheetData>
@@ -7473,28 +7473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.5648941197845</v>
+        <v>345.0116854416833</v>
       </c>
       <c r="AB2" t="n">
-        <v>426.2968334077262</v>
+        <v>472.0602088626408</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.6116619386554</v>
+        <v>427.0074450694538</v>
       </c>
       <c r="AD2" t="n">
-        <v>311564.8941197845</v>
+        <v>345011.6854416833</v>
       </c>
       <c r="AE2" t="n">
-        <v>426296.8334077262</v>
+        <v>472060.2088626408</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544769762044583e-06</v>
+        <v>5.100984257011648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.512044270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>385611.6619386554</v>
+        <v>427007.4450694538</v>
       </c>
     </row>
     <row r="3">
@@ -7579,28 +7579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.6403183695992</v>
+        <v>228.881374856368</v>
       </c>
       <c r="AB3" t="n">
-        <v>282.7343999206034</v>
+        <v>313.1655946119474</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.7506256124867</v>
+        <v>283.2775097929485</v>
       </c>
       <c r="AD3" t="n">
-        <v>206640.3183695992</v>
+        <v>228881.374856368</v>
       </c>
       <c r="AE3" t="n">
-        <v>282734.3999206034</v>
+        <v>313165.5946119474</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.223877320372075e-06</v>
+        <v>6.462253561415412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.139973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>255750.6256124866</v>
+        <v>283277.5097929485</v>
       </c>
     </row>
     <row r="4">
@@ -7685,28 +7685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.7438149722382</v>
+        <v>229.984871459007</v>
       </c>
       <c r="AB4" t="n">
-        <v>284.2442526551675</v>
+        <v>314.6754473465115</v>
       </c>
       <c r="AC4" t="n">
-        <v>257.1163801211561</v>
+        <v>284.6432643016179</v>
       </c>
       <c r="AD4" t="n">
-        <v>207743.8149722382</v>
+        <v>229984.871459007</v>
       </c>
       <c r="AE4" t="n">
-        <v>284244.2526551675</v>
+        <v>314675.4473465115</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.22092467881413e-06</v>
+        <v>6.456334999222354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.144856770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>257116.3801211561</v>
+        <v>284643.2643016179</v>
       </c>
     </row>
   </sheetData>
@@ -7982,28 +7982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>217.7171917579089</v>
+        <v>249.6529387785246</v>
       </c>
       <c r="AB2" t="n">
-        <v>297.8902667676459</v>
+        <v>341.5861647469533</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.4600377990449</v>
+        <v>308.9856606027992</v>
       </c>
       <c r="AD2" t="n">
-        <v>217717.1917579089</v>
+        <v>249652.9387785246</v>
       </c>
       <c r="AE2" t="n">
-        <v>297890.2667676459</v>
+        <v>341586.1647469533</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.019781324292664e-06</v>
+        <v>6.317571381253878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.716145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>269460.0377990449</v>
+        <v>308985.6606027992</v>
       </c>
     </row>
     <row r="3">
@@ -8088,28 +8088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>196.2103193464827</v>
+        <v>227.9754741665062</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.4636151181007</v>
+        <v>311.9261013225613</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.841824482358</v>
+        <v>282.1563120034612</v>
       </c>
       <c r="AD3" t="n">
-        <v>196210.3193464827</v>
+        <v>227975.4741665062</v>
       </c>
       <c r="AE3" t="n">
-        <v>268463.6151181007</v>
+        <v>311926.1013225613</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.229881658062332e-06</v>
+        <v>6.757114418737245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.345052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>242841.824482358</v>
+        <v>282156.3120034612</v>
       </c>
     </row>
   </sheetData>
@@ -13990,28 +13990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.0075173974871</v>
+        <v>219.8036730061686</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.6084237262945</v>
+        <v>300.7450824605697</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.9271987251347</v>
+        <v>272.042393888996</v>
       </c>
       <c r="AD2" t="n">
-        <v>189007.5173974871</v>
+        <v>219803.6730061686</v>
       </c>
       <c r="AE2" t="n">
-        <v>258608.4237262945</v>
+        <v>300745.0824605697</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.181533165512986e-06</v>
+        <v>6.91619422884125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.611979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>233927.1987251347</v>
+        <v>272042.393888996</v>
       </c>
     </row>
     <row r="3">
@@ -14096,28 +14096,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.3513705405489</v>
+        <v>221.1475261492305</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.4471428832472</v>
+        <v>302.5838016175224</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.590433106407</v>
+        <v>273.7056282702683</v>
       </c>
       <c r="AD3" t="n">
-        <v>190351.3705405489</v>
+        <v>221147.5261492305</v>
       </c>
       <c r="AE3" t="n">
-        <v>260447.1428832472</v>
+        <v>302583.8016175224</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.180765182749491e-06</v>
+        <v>6.914524745079676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.613606770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>235590.433106407</v>
+        <v>273705.6282702683</v>
       </c>
     </row>
   </sheetData>
@@ -14393,28 +14393,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.4298986594069</v>
+        <v>233.394067168997</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.3958091043132</v>
+        <v>319.3400593200174</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.8759283758509</v>
+        <v>288.8626922551978</v>
       </c>
       <c r="AD2" t="n">
-        <v>195429.8986594069</v>
+        <v>233394.067168997</v>
       </c>
       <c r="AE2" t="n">
-        <v>267395.8091043132</v>
+        <v>319340.0593200173</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.842587697352579e-06</v>
+        <v>6.761171484332055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.741536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>241875.9283758509</v>
+        <v>288862.6922551978</v>
       </c>
     </row>
   </sheetData>
@@ -14690,28 +14690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.0045640925675</v>
+        <v>466.9269970965896</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.0370180019739</v>
+        <v>638.8701167928365</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.0608534768974</v>
+        <v>577.8972495059678</v>
       </c>
       <c r="AD2" t="n">
-        <v>421004.5640925675</v>
+        <v>466926.9970965896</v>
       </c>
       <c r="AE2" t="n">
-        <v>576037.018001974</v>
+        <v>638870.1167928365</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.168258446459781e-06</v>
+        <v>4.207675062299209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.392578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>521060.8534768973</v>
+        <v>577897.2495059678</v>
       </c>
     </row>
     <row r="3">
@@ -14796,28 +14796,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.0405334543833</v>
+        <v>278.4397101572548</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.907024180619</v>
+        <v>380.9734953302156</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.0394064343719</v>
+        <v>344.613919635558</v>
       </c>
       <c r="AD3" t="n">
-        <v>244040.5334543833</v>
+        <v>278439.7101572548</v>
       </c>
       <c r="AE3" t="n">
-        <v>333907.024180619</v>
+        <v>380973.4953302156</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.991818505854057e-06</v>
+        <v>5.805857755823067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>302039.406434372</v>
+        <v>344613.919635558</v>
       </c>
     </row>
     <row r="4">
@@ -14902,28 +14902,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.9170519607741</v>
+        <v>241.963654071632</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.5319684313016</v>
+        <v>331.0653461836884</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.9450577600646</v>
+        <v>299.4689341971473</v>
       </c>
       <c r="AD4" t="n">
-        <v>218917.0519607741</v>
+        <v>241963.654071632</v>
       </c>
       <c r="AE4" t="n">
-        <v>299531.9684313015</v>
+        <v>331065.3461836884</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.181189065965882e-06</v>
+        <v>6.173346135548808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>270945.0577600646</v>
+        <v>299468.9341971473</v>
       </c>
     </row>
     <row r="5">
@@ -15008,28 +15008,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.7030534111938</v>
+        <v>242.7496555220517</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.607410291702</v>
+        <v>332.1407880440888</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.9178609587009</v>
+        <v>300.4417373957836</v>
       </c>
       <c r="AD5" t="n">
-        <v>219703.0534111938</v>
+        <v>242749.6555220517</v>
       </c>
       <c r="AE5" t="n">
-        <v>300607.410291702</v>
+        <v>332140.7880440888</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.181582972487175e-06</v>
+        <v>6.174110541954893e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.037434895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>271917.8609587009</v>
+        <v>300441.7373957836</v>
       </c>
     </row>
   </sheetData>
@@ -15305,28 +15305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>601.5082423926453</v>
+        <v>661.357055058696</v>
       </c>
       <c r="AB2" t="n">
-        <v>823.0101139124081</v>
+        <v>904.8978997453676</v>
       </c>
       <c r="AC2" t="n">
-        <v>744.4631837425569</v>
+        <v>818.5357142258479</v>
       </c>
       <c r="AD2" t="n">
-        <v>601508.2423926453</v>
+        <v>661357.055058696</v>
       </c>
       <c r="AE2" t="n">
-        <v>823010.1139124081</v>
+        <v>904897.8997453676</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.763722459883934e-06</v>
+        <v>3.309435118269834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.756510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>744463.183742557</v>
+        <v>818535.7142258479</v>
       </c>
     </row>
     <row r="3">
@@ -15411,28 +15411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.9744901314257</v>
+        <v>343.9349822437991</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.3842842734087</v>
+        <v>470.5870160465029</v>
       </c>
       <c r="AC3" t="n">
-        <v>381.1679595989112</v>
+        <v>425.6748517080491</v>
       </c>
       <c r="AD3" t="n">
-        <v>307974.4901314257</v>
+        <v>343934.9822437991</v>
       </c>
       <c r="AE3" t="n">
-        <v>421384.2842734087</v>
+        <v>470587.0160465029</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.646532641972615e-06</v>
+        <v>4.96593328383877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.836588541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>381167.9595989112</v>
+        <v>425674.8517080491</v>
       </c>
     </row>
     <row r="4">
@@ -15517,28 +15517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.9129198138073</v>
+        <v>277.8866707306105</v>
       </c>
       <c r="AB4" t="n">
-        <v>347.4148587365237</v>
+        <v>380.2168023883033</v>
       </c>
       <c r="AC4" t="n">
-        <v>314.2580722186301</v>
+        <v>343.9294444059966</v>
       </c>
       <c r="AD4" t="n">
-        <v>253912.9198138074</v>
+        <v>277886.6707306105</v>
       </c>
       <c r="AE4" t="n">
-        <v>347414.8587365237</v>
+        <v>380216.8023883033</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.989958423868663e-06</v>
+        <v>5.61033475231066e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.166015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>314258.0722186301</v>
+        <v>343929.4444059966</v>
       </c>
     </row>
     <row r="5">
@@ -15623,28 +15623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.165408910458</v>
+        <v>258.0405601682593</v>
       </c>
       <c r="AB5" t="n">
-        <v>303.9765137172512</v>
+        <v>353.0624783681225</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.9654218818831</v>
+        <v>319.366690959075</v>
       </c>
       <c r="AD5" t="n">
-        <v>222165.408910458</v>
+        <v>258040.5601682593</v>
       </c>
       <c r="AE5" t="n">
-        <v>303976.5137172512</v>
+        <v>353062.4783681225</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.113606888585588e-06</v>
+        <v>5.842347770663484e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.9609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>274965.4218818831</v>
+        <v>319366.6909590749</v>
       </c>
     </row>
     <row r="6">
@@ -15729,28 +15729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>223.1983890981999</v>
+        <v>259.0735403560045</v>
       </c>
       <c r="AB6" t="n">
-        <v>305.3898827819886</v>
+        <v>354.475847433032</v>
       </c>
       <c r="AC6" t="n">
-        <v>276.2439009867584</v>
+        <v>320.6451700639992</v>
       </c>
       <c r="AD6" t="n">
-        <v>223198.3890981999</v>
+        <v>259073.5403560044</v>
       </c>
       <c r="AE6" t="n">
-        <v>305389.8827819886</v>
+        <v>354475.847433032</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.111044717789459e-06</v>
+        <v>5.837540133291629e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.964192708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>276243.9009867584</v>
+        <v>320645.1700639991</v>
       </c>
     </row>
   </sheetData>
@@ -16026,28 +16026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.2644391558783</v>
+        <v>256.8199596627908</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.3755230341699</v>
+        <v>351.3923989074474</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.6126660990809</v>
+        <v>317.8560015381549</v>
       </c>
       <c r="AD2" t="n">
-        <v>220264.4391558783</v>
+        <v>256819.9596627908</v>
       </c>
       <c r="AE2" t="n">
-        <v>301375.5230341699</v>
+        <v>351392.3989074475</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.477714967930088e-06</v>
+        <v>6.196577102164633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.009440104166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>272612.6660990809</v>
+        <v>317856.001538155</v>
       </c>
     </row>
   </sheetData>
@@ -16323,28 +16323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.7667291178262</v>
+        <v>287.8518353060577</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.9006371248327</v>
+        <v>393.8515801924635</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.9381903537347</v>
+        <v>356.2629381530585</v>
       </c>
       <c r="AD2" t="n">
-        <v>244766.7291178262</v>
+        <v>287851.8353060577</v>
       </c>
       <c r="AE2" t="n">
-        <v>334900.6371248327</v>
+        <v>393851.5801924635</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.842303907708066e-06</v>
+        <v>5.853109420090685e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.984700520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>302938.1903537347</v>
+        <v>356262.9381530585</v>
       </c>
     </row>
     <row r="3">
@@ -16429,28 +16429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.7424319669844</v>
+        <v>221.370415424221</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.2964074312798</v>
+        <v>302.888768556745</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.2133818800355</v>
+        <v>273.9814895928354</v>
       </c>
       <c r="AD3" t="n">
-        <v>199742.4319669844</v>
+        <v>221370.415424221</v>
       </c>
       <c r="AE3" t="n">
-        <v>273296.4074312798</v>
+        <v>302888.768556745</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.232028546325633e-06</v>
+        <v>6.655662921617313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.263671875000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>247213.3818800354</v>
+        <v>273981.4895928354</v>
       </c>
     </row>
   </sheetData>
@@ -16726,28 +16726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>342.5629704208301</v>
+        <v>387.5228588813528</v>
       </c>
       <c r="AB2" t="n">
-        <v>468.709768941427</v>
+        <v>530.2258718234051</v>
       </c>
       <c r="AC2" t="n">
-        <v>423.9767664319488</v>
+        <v>479.6218587932636</v>
       </c>
       <c r="AD2" t="n">
-        <v>342562.9704208301</v>
+        <v>387522.8588813528</v>
       </c>
       <c r="AE2" t="n">
-        <v>468709.768941427</v>
+        <v>530225.8718234051</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.408701335703863e-06</v>
+        <v>4.772080816326567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.800130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>423976.7664319488</v>
+        <v>479621.8587932636</v>
       </c>
     </row>
     <row r="3">
@@ -16832,28 +16832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.8183092064747</v>
+        <v>237.3410133725725</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.9238877711034</v>
+        <v>324.7404452427239</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.8722044470833</v>
+        <v>293.7476729249322</v>
       </c>
       <c r="AD3" t="n">
-        <v>214818.3092064747</v>
+        <v>237341.0133725725</v>
       </c>
       <c r="AE3" t="n">
-        <v>293923.8877711034</v>
+        <v>324740.4452427239</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.176752856107722e-06</v>
+        <v>6.293732285581337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>265872.2044470833</v>
+        <v>293747.6729249322</v>
       </c>
     </row>
     <row r="4">
@@ -16938,28 +16938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.3700701266907</v>
+        <v>233.8927742927885</v>
       </c>
       <c r="AB4" t="n">
-        <v>289.2058549365736</v>
+        <v>320.0224124081941</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.6044540444789</v>
+        <v>289.4799225223278</v>
       </c>
       <c r="AD4" t="n">
-        <v>211370.0701266907</v>
+        <v>233892.7742927886</v>
       </c>
       <c r="AE4" t="n">
-        <v>289205.8549365737</v>
+        <v>320022.4124081941</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.21146761760901e-06</v>
+        <v>6.362508619512018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.099283854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>261604.4540444789</v>
+        <v>289479.9225223278</v>
       </c>
     </row>
   </sheetData>
